--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.041421333333334</v>
+        <v>1.561916</v>
       </c>
       <c r="H2">
-        <v>6.124264</v>
+        <v>4.685748</v>
       </c>
       <c r="I2">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="J2">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N2">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O2">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P2">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q2">
-        <v>4.844410545963556</v>
+        <v>4.269752498946667</v>
       </c>
       <c r="R2">
-        <v>43.599694913672</v>
+        <v>38.42777249052</v>
       </c>
       <c r="S2">
-        <v>0.001103875575715235</v>
+        <v>0.0008583049143755859</v>
       </c>
       <c r="T2">
-        <v>0.001103875575715235</v>
+        <v>0.0008583049143755859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.041421333333334</v>
+        <v>1.561916</v>
       </c>
       <c r="H3">
-        <v>6.124264</v>
+        <v>4.685748</v>
       </c>
       <c r="I3">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="J3">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P3">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q3">
-        <v>88.31992327531556</v>
+        <v>67.57463490265333</v>
       </c>
       <c r="R3">
-        <v>794.87930947784</v>
+        <v>608.1717141238801</v>
       </c>
       <c r="S3">
-        <v>0.02012509163450198</v>
+        <v>0.01358384150800115</v>
       </c>
       <c r="T3">
-        <v>0.02012509163450198</v>
+        <v>0.01358384150800115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.041421333333334</v>
+        <v>1.561916</v>
       </c>
       <c r="H4">
-        <v>6.124264</v>
+        <v>4.685748</v>
       </c>
       <c r="I4">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="J4">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N4">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O4">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P4">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q4">
-        <v>38.12116174177778</v>
+        <v>33.52579544267334</v>
       </c>
       <c r="R4">
-        <v>343.090455676</v>
+        <v>301.73215898406</v>
       </c>
       <c r="S4">
-        <v>0.008686509734337263</v>
+        <v>0.006739349644714988</v>
       </c>
       <c r="T4">
-        <v>0.008686509734337265</v>
+        <v>0.006739349644714988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.041421333333334</v>
+        <v>1.561916</v>
       </c>
       <c r="H5">
-        <v>6.124264</v>
+        <v>4.685748</v>
       </c>
       <c r="I5">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="J5">
-        <v>0.03013244547937793</v>
+        <v>0.02125955722027638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N5">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O5">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P5">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q5">
-        <v>0.9521767501377778</v>
+        <v>0.3883256384746667</v>
       </c>
       <c r="R5">
-        <v>8.56959075124</v>
+        <v>3.494930746272</v>
       </c>
       <c r="S5">
-        <v>0.0002169685348234538</v>
+        <v>7.806115318465601E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002169685348234538</v>
+        <v>7.806115318465601E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>103.974977</v>
       </c>
       <c r="I6">
-        <v>0.5115749950805638</v>
+        <v>0.4717415390260894</v>
       </c>
       <c r="J6">
-        <v>0.5115749950805639</v>
+        <v>0.4717415390260893</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N6">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O6">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P6">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q6">
-        <v>82.24620543711345</v>
+        <v>94.74419406969221</v>
       </c>
       <c r="R6">
-        <v>740.2158489340211</v>
+        <v>852.69774662723</v>
       </c>
       <c r="S6">
-        <v>0.01874109894606981</v>
+        <v>0.01904546162772486</v>
       </c>
       <c r="T6">
-        <v>0.01874109894606981</v>
+        <v>0.01904546162772486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>103.974977</v>
       </c>
       <c r="I7">
-        <v>0.5115749950805638</v>
+        <v>0.4717415390260894</v>
       </c>
       <c r="J7">
-        <v>0.5115749950805639</v>
+        <v>0.4717415390260893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P7">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q7">
         <v>1499.455606615375</v>
@@ -883,10 +883,10 @@
         <v>13495.10045953837</v>
       </c>
       <c r="S7">
-        <v>0.3416746795729634</v>
+        <v>0.3014203086393175</v>
       </c>
       <c r="T7">
-        <v>0.3416746795729636</v>
+        <v>0.3014203086393175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>103.974977</v>
       </c>
       <c r="I8">
-        <v>0.5115749950805638</v>
+        <v>0.4717415390260894</v>
       </c>
       <c r="J8">
-        <v>0.5115749950805639</v>
+        <v>0.4717415390260893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N8">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O8">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P8">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q8">
-        <v>647.2037971117223</v>
+        <v>743.9247287858129</v>
       </c>
       <c r="R8">
-        <v>5824.834174005501</v>
+        <v>6695.322559072316</v>
       </c>
       <c r="S8">
-        <v>0.147475623166799</v>
+        <v>0.1495436212754504</v>
       </c>
       <c r="T8">
-        <v>0.147475623166799</v>
+        <v>0.1495436212754504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>103.974977</v>
       </c>
       <c r="I9">
-        <v>0.5115749950805638</v>
+        <v>0.4717415390260894</v>
       </c>
       <c r="J9">
-        <v>0.5115749950805639</v>
+        <v>0.4717415390260893</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N9">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O9">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P9">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q9">
-        <v>16.16562507682722</v>
+        <v>8.616799138347556</v>
       </c>
       <c r="R9">
-        <v>145.490625691445</v>
+        <v>77.55119224512801</v>
       </c>
       <c r="S9">
-        <v>0.003683593394731563</v>
+        <v>0.001732147483596661</v>
       </c>
       <c r="T9">
-        <v>0.003683593394731565</v>
+        <v>0.001732147483596661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.72629533333334</v>
+        <v>37.00419333333334</v>
       </c>
       <c r="H10">
-        <v>92.17888600000001</v>
+        <v>111.01258</v>
       </c>
       <c r="I10">
-        <v>0.4535361729580556</v>
+        <v>0.503671622264046</v>
       </c>
       <c r="J10">
-        <v>0.4535361729580557</v>
+        <v>0.5036716222640459</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N10">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O10">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P10">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q10">
-        <v>72.91527070903089</v>
+        <v>101.1570064949111</v>
       </c>
       <c r="R10">
-        <v>656.237436381278</v>
+        <v>910.4130584542</v>
       </c>
       <c r="S10">
-        <v>0.01661489786397826</v>
+        <v>0.02033456408059351</v>
       </c>
       <c r="T10">
-        <v>0.01661489786397827</v>
+        <v>0.02033456408059351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.72629533333334</v>
+        <v>37.00419333333334</v>
       </c>
       <c r="H11">
-        <v>92.17888600000001</v>
+        <v>111.01258</v>
       </c>
       <c r="I11">
-        <v>0.4535361729580556</v>
+        <v>0.503671622264046</v>
       </c>
       <c r="J11">
-        <v>0.4535361729580557</v>
+        <v>0.5036716222640459</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P11">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q11">
-        <v>1329.340495302629</v>
+        <v>1600.947076774423</v>
       </c>
       <c r="R11">
-        <v>11964.06445772366</v>
+        <v>14408.5236909698</v>
       </c>
       <c r="S11">
-        <v>0.3029112604414687</v>
+        <v>0.3218221065482604</v>
       </c>
       <c r="T11">
-        <v>0.3029112604414689</v>
+        <v>0.3218221065482604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.72629533333334</v>
+        <v>37.00419333333334</v>
       </c>
       <c r="H12">
-        <v>92.17888600000001</v>
+        <v>111.01258</v>
       </c>
       <c r="I12">
-        <v>0.4535361729580556</v>
+        <v>0.503671622264046</v>
       </c>
       <c r="J12">
-        <v>0.4535361729580557</v>
+        <v>0.5036716222640459</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N12">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O12">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P12">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q12">
-        <v>573.7777180054445</v>
+        <v>794.2776796027891</v>
       </c>
       <c r="R12">
-        <v>5163.999462049001</v>
+        <v>7148.499116425101</v>
       </c>
       <c r="S12">
-        <v>0.1307443295291262</v>
+        <v>0.1596655628048914</v>
       </c>
       <c r="T12">
-        <v>0.1307443295291263</v>
+        <v>0.1596655628048914</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.72629533333334</v>
+        <v>37.00419333333334</v>
       </c>
       <c r="H13">
-        <v>92.17888600000001</v>
+        <v>111.01258</v>
       </c>
       <c r="I13">
-        <v>0.4535361729580556</v>
+        <v>0.503671622264046</v>
       </c>
       <c r="J13">
-        <v>0.4535361729580557</v>
+        <v>0.5036716222640459</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N13">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O13">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P13">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q13">
-        <v>14.33161472183444</v>
+        <v>9.200031885457779</v>
       </c>
       <c r="R13">
-        <v>128.98453249651</v>
+        <v>82.80028696912001</v>
       </c>
       <c r="S13">
-        <v>0.003265685123482295</v>
+        <v>0.001849388830300708</v>
       </c>
       <c r="T13">
-        <v>0.003265685123482296</v>
+        <v>0.001849388830300708</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.322237</v>
+        <v>0.2444516666666667</v>
       </c>
       <c r="H14">
-        <v>0.966711</v>
+        <v>0.733355</v>
       </c>
       <c r="I14">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="J14">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N14">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O14">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P14">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q14">
-        <v>0.7646869833336666</v>
+        <v>0.6682485579388887</v>
       </c>
       <c r="R14">
-        <v>6.882182850003</v>
+        <v>6.01423702145</v>
       </c>
       <c r="S14">
-        <v>0.0001742460255918507</v>
+        <v>0.0001343312104026738</v>
       </c>
       <c r="T14">
-        <v>0.0001742460255918507</v>
+        <v>0.0001343312104026738</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.322237</v>
+        <v>0.2444516666666667</v>
       </c>
       <c r="H15">
-        <v>0.966711</v>
+        <v>0.733355</v>
       </c>
       <c r="I15">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="J15">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>129.79181</v>
       </c>
       <c r="O15">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P15">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q15">
-        <v>13.94124115965667</v>
+        <v>10.57594142472778</v>
       </c>
       <c r="R15">
-        <v>125.47117043691</v>
+        <v>95.18347282255</v>
       </c>
       <c r="S15">
-        <v>0.003176732332094279</v>
+        <v>0.002125973929690666</v>
       </c>
       <c r="T15">
-        <v>0.00317673233209428</v>
+        <v>0.002125973929690666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.322237</v>
+        <v>0.2444516666666667</v>
       </c>
       <c r="H16">
-        <v>0.966711</v>
+        <v>0.733355</v>
       </c>
       <c r="I16">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="J16">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N16">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O16">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P16">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q16">
-        <v>6.017400031833334</v>
+        <v>5.247040540136111</v>
       </c>
       <c r="R16">
-        <v>54.1566002865</v>
+        <v>47.223364861225</v>
       </c>
       <c r="S16">
-        <v>0.001371159785370276</v>
+        <v>0.001054759188650341</v>
       </c>
       <c r="T16">
-        <v>0.001371159785370276</v>
+        <v>0.001054759188650341</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.322237</v>
+        <v>0.2444516666666667</v>
       </c>
       <c r="H17">
-        <v>0.966711</v>
+        <v>0.733355</v>
       </c>
       <c r="I17">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="J17">
-        <v>0.004756386482002558</v>
+        <v>0.003327281489588382</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N17">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O17">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P17">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q17">
-        <v>0.1503004668483333</v>
+        <v>0.06077589930222222</v>
       </c>
       <c r="R17">
-        <v>1.352704201635</v>
+        <v>0.54698309372</v>
       </c>
       <c r="S17">
-        <v>3.424833894615186E-05</v>
+        <v>1.221716084470044E-05</v>
       </c>
       <c r="T17">
-        <v>3.424833894615187E-05</v>
+        <v>1.221716084470044E-05</v>
       </c>
     </row>
   </sheetData>
